--- a/Data/ROY Data/rookies_03_04.xlsx
+++ b/Data/ROY Data/rookies_03_04.xlsx
@@ -933,76 +933,76 @@
         <v>19</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1115</v>
+        <v>82</v>
       </c>
       <c r="H2">
-        <v>39789</v>
+        <v>2995</v>
       </c>
       <c r="I2">
-        <v>9433</v>
+        <v>624</v>
       </c>
       <c r="J2">
-        <v>21050</v>
+        <v>1465</v>
       </c>
       <c r="K2">
-        <v>1436</v>
+        <v>69</v>
       </c>
       <c r="L2">
-        <v>4123</v>
+        <v>214</v>
       </c>
       <c r="M2">
-        <v>6033</v>
+        <v>408</v>
       </c>
       <c r="N2">
-        <v>7429</v>
+        <v>525</v>
       </c>
       <c r="O2">
-        <v>1880</v>
+        <v>183</v>
       </c>
       <c r="P2">
-        <v>7258</v>
+        <v>498</v>
       </c>
       <c r="Q2">
-        <v>3244</v>
+        <v>227</v>
       </c>
       <c r="R2">
-        <v>1123</v>
+        <v>97</v>
       </c>
       <c r="S2">
-        <v>550</v>
+        <v>41</v>
       </c>
       <c r="T2">
-        <v>2924</v>
+        <v>247</v>
       </c>
       <c r="U2">
-        <v>3209</v>
+        <v>225</v>
       </c>
       <c r="V2">
-        <v>26335</v>
+        <v>1725</v>
       </c>
       <c r="W2">
-        <v>0.448</v>
+        <v>0.426</v>
       </c>
       <c r="X2">
-        <v>0.348</v>
+        <v>0.322</v>
       </c>
       <c r="Y2">
-        <v>0.8120000000000001</v>
+        <v>0.777</v>
       </c>
       <c r="Z2">
-        <v>35.7</v>
+        <v>36.5</v>
       </c>
       <c r="AA2">
-        <v>23.6</v>
+        <v>21</v>
       </c>
       <c r="AB2">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AC2">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD2" t="s">
         <v>149</v>
@@ -1025,76 +1025,76 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="H3">
-        <v>5571</v>
+        <v>1385</v>
       </c>
       <c r="I3">
-        <v>741</v>
+        <v>177</v>
       </c>
       <c r="J3">
-        <v>1715</v>
+        <v>442</v>
       </c>
       <c r="K3">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <v>86</v>
+      </c>
+      <c r="M3">
+        <v>99</v>
+      </c>
+      <c r="N3">
+        <v>131</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>133</v>
+      </c>
+      <c r="Q3">
+        <v>175</v>
+      </c>
+      <c r="R3">
+        <v>88</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
         <v>125</v>
       </c>
-      <c r="L3">
-        <v>382</v>
-      </c>
-      <c r="M3">
-        <v>454</v>
-      </c>
-      <c r="N3">
-        <v>591</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
-      </c>
-      <c r="P3">
-        <v>519</v>
-      </c>
-      <c r="Q3">
-        <v>728</v>
-      </c>
-      <c r="R3">
-        <v>266</v>
-      </c>
-      <c r="S3">
-        <v>57</v>
-      </c>
-      <c r="T3">
-        <v>436</v>
-      </c>
       <c r="U3">
-        <v>674</v>
+        <v>171</v>
       </c>
       <c r="V3">
-        <v>2061</v>
+        <v>480</v>
       </c>
       <c r="W3">
-        <v>0.432</v>
+        <v>0.4</v>
       </c>
       <c r="X3">
-        <v>0.327</v>
+        <v>0.314</v>
       </c>
       <c r="Y3">
-        <v>0.768</v>
+        <v>0.756</v>
       </c>
       <c r="Z3">
-        <v>16</v>
+        <v>17.1</v>
       </c>
       <c r="AA3">
         <v>5.9</v>
       </c>
       <c r="AB3">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AC3">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD3" t="s">
         <v>149</v>
@@ -1117,76 +1117,76 @@
         <v>21</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>850</v>
+        <v>70</v>
       </c>
       <c r="H4">
-        <v>18386</v>
+        <v>1500</v>
       </c>
       <c r="I4">
-        <v>3403</v>
+        <v>210</v>
       </c>
       <c r="J4">
-        <v>7409</v>
+        <v>470</v>
       </c>
       <c r="K4">
-        <v>988</v>
+        <v>83</v>
       </c>
       <c r="L4">
-        <v>2556</v>
+        <v>210</v>
       </c>
       <c r="M4">
-        <v>1241</v>
+        <v>47</v>
       </c>
       <c r="N4">
-        <v>1511</v>
+        <v>61</v>
       </c>
       <c r="O4">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="P4">
-        <v>1720</v>
+        <v>123</v>
       </c>
       <c r="Q4">
-        <v>1775</v>
+        <v>165</v>
       </c>
       <c r="R4">
-        <v>693</v>
+        <v>93</v>
       </c>
       <c r="S4">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="T4">
-        <v>1061</v>
+        <v>120</v>
       </c>
       <c r="U4">
-        <v>1651</v>
+        <v>184</v>
       </c>
       <c r="V4">
-        <v>9035</v>
+        <v>550</v>
       </c>
       <c r="W4">
-        <v>0.459</v>
+        <v>0.447</v>
       </c>
       <c r="X4">
-        <v>0.387</v>
+        <v>0.395</v>
       </c>
       <c r="Y4">
-        <v>0.821</v>
+        <v>0.77</v>
       </c>
       <c r="Z4">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AA4">
-        <v>10.6</v>
+        <v>7.9</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AC4">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AD4" t="s">
         <v>149</v>
@@ -1209,76 +1209,76 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>929</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>21967</v>
+        <v>724</v>
       </c>
       <c r="I5">
-        <v>2788</v>
+        <v>63</v>
       </c>
       <c r="J5">
-        <v>6388</v>
+        <v>138</v>
       </c>
       <c r="K5">
-        <v>982</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>2931</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>1031</v>
+        <v>43</v>
       </c>
       <c r="N5">
-        <v>1384</v>
+        <v>61</v>
       </c>
       <c r="O5">
-        <v>1066</v>
+        <v>53</v>
       </c>
       <c r="P5">
-        <v>4281</v>
+        <v>151</v>
       </c>
       <c r="Q5">
-        <v>1691</v>
+        <v>48</v>
       </c>
       <c r="R5">
-        <v>714</v>
+        <v>27</v>
       </c>
       <c r="S5">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1172</v>
+        <v>44</v>
       </c>
       <c r="U5">
-        <v>2353</v>
+        <v>76</v>
       </c>
       <c r="V5">
-        <v>7589</v>
+        <v>171</v>
       </c>
       <c r="W5">
-        <v>0.436</v>
+        <v>0.457</v>
       </c>
       <c r="X5">
-        <v>0.335</v>
+        <v>0.154</v>
       </c>
       <c r="Y5">
-        <v>0.745</v>
+        <v>0.705</v>
       </c>
       <c r="Z5">
-        <v>23.6</v>
+        <v>19.1</v>
       </c>
       <c r="AA5">
-        <v>8.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="AB5">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AC5">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD5" t="s">
         <v>149</v>
@@ -1479,76 +1479,76 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>870</v>
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>20823</v>
+        <v>1392</v>
       </c>
       <c r="I8">
-        <v>2061</v>
+        <v>157</v>
       </c>
       <c r="J8">
-        <v>5145</v>
+        <v>407</v>
       </c>
       <c r="K8">
-        <v>1037</v>
+        <v>75</v>
       </c>
       <c r="L8">
-        <v>2709</v>
+        <v>202</v>
       </c>
       <c r="M8">
-        <v>503</v>
+        <v>55</v>
       </c>
       <c r="N8">
-        <v>646</v>
+        <v>67</v>
       </c>
       <c r="O8">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="P8">
-        <v>1816</v>
+        <v>117</v>
       </c>
       <c r="Q8">
-        <v>3446</v>
+        <v>209</v>
       </c>
       <c r="R8">
-        <v>587</v>
+        <v>57</v>
       </c>
       <c r="S8">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>1222</v>
+        <v>128</v>
       </c>
       <c r="U8">
-        <v>1287</v>
+        <v>100</v>
       </c>
       <c r="V8">
-        <v>5662</v>
+        <v>444</v>
       </c>
       <c r="W8">
-        <v>0.401</v>
+        <v>0.386</v>
       </c>
       <c r="X8">
-        <v>0.383</v>
+        <v>0.371</v>
       </c>
       <c r="Y8">
-        <v>0.779</v>
+        <v>0.821</v>
       </c>
       <c r="Z8">
-        <v>23.9</v>
+        <v>18.6</v>
       </c>
       <c r="AA8">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB8">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AC8">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AD8" t="s">
         <v>149</v>
@@ -1571,73 +1571,73 @@
         <v>23</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>671</v>
+        <v>73</v>
       </c>
       <c r="H9">
-        <v>14527</v>
+        <v>1787</v>
       </c>
       <c r="I9">
-        <v>1482</v>
+        <v>183</v>
       </c>
       <c r="J9">
-        <v>3759</v>
+        <v>454</v>
       </c>
       <c r="K9">
-        <v>714</v>
+        <v>67</v>
       </c>
       <c r="L9">
-        <v>2020</v>
+        <v>187</v>
       </c>
       <c r="M9">
-        <v>579</v>
+        <v>65</v>
       </c>
       <c r="N9">
-        <v>809</v>
+        <v>103</v>
       </c>
       <c r="O9">
-        <v>391</v>
+        <v>106</v>
       </c>
       <c r="P9">
-        <v>1817</v>
+        <v>317</v>
       </c>
       <c r="Q9">
-        <v>866</v>
+        <v>98</v>
       </c>
       <c r="R9">
-        <v>429</v>
+        <v>46</v>
       </c>
       <c r="S9">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="T9">
-        <v>574</v>
+        <v>75</v>
       </c>
       <c r="U9">
-        <v>1223</v>
+        <v>128</v>
       </c>
       <c r="V9">
-        <v>4257</v>
+        <v>498</v>
       </c>
       <c r="W9">
-        <v>0.394</v>
+        <v>0.403</v>
       </c>
       <c r="X9">
-        <v>0.353</v>
+        <v>0.358</v>
       </c>
       <c r="Y9">
-        <v>0.716</v>
+        <v>0.631</v>
       </c>
       <c r="Z9">
-        <v>21.6</v>
+        <v>24.5</v>
       </c>
       <c r="AA9">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AB9">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="AC9">
         <v>1.3</v>
@@ -1663,19 +1663,19 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="H10">
-        <v>1117</v>
+        <v>258</v>
       </c>
       <c r="I10">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="J10">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1684,55 +1684,55 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="N10">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="O10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="P10">
-        <v>278</v>
+        <v>54</v>
       </c>
       <c r="Q10">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
         <v>14</v>
       </c>
-      <c r="S10">
-        <v>46</v>
-      </c>
       <c r="T10">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="U10">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="V10">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="W10">
-        <v>0.421</v>
+        <v>0.393</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.742</v>
+        <v>0.778</v>
       </c>
       <c r="Z10">
-        <v>13.5</v>
+        <v>16.1</v>
       </c>
       <c r="AA10">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD10" t="s">
         <v>149</v>
@@ -1755,76 +1755,76 @@
         <v>19</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>893</v>
+        <v>75</v>
       </c>
       <c r="H11">
-        <v>31936</v>
+        <v>2510</v>
       </c>
       <c r="I11">
-        <v>6209</v>
+        <v>327</v>
       </c>
       <c r="J11">
-        <v>12581</v>
+        <v>712</v>
       </c>
       <c r="K11">
-        <v>305</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>910</v>
+        <v>14</v>
       </c>
       <c r="M11">
-        <v>4466</v>
+        <v>202</v>
       </c>
       <c r="N11">
-        <v>5591</v>
+        <v>288</v>
       </c>
       <c r="O11">
-        <v>1927</v>
+        <v>191</v>
       </c>
       <c r="P11">
-        <v>7592</v>
+        <v>557</v>
       </c>
       <c r="Q11">
-        <v>1795</v>
+        <v>78</v>
       </c>
       <c r="R11">
-        <v>730</v>
+        <v>59</v>
       </c>
       <c r="S11">
-        <v>932</v>
+        <v>106</v>
       </c>
       <c r="T11">
-        <v>1807</v>
+        <v>107</v>
       </c>
       <c r="U11">
-        <v>2159</v>
+        <v>215</v>
       </c>
       <c r="V11">
-        <v>17189</v>
+        <v>861</v>
       </c>
       <c r="W11">
-        <v>0.494</v>
+        <v>0.459</v>
       </c>
       <c r="X11">
-        <v>0.335</v>
+        <v>0.357</v>
       </c>
       <c r="Y11">
-        <v>0.799</v>
+        <v>0.701</v>
       </c>
       <c r="Z11">
-        <v>35.8</v>
+        <v>33.5</v>
       </c>
       <c r="AA11">
-        <v>19.2</v>
+        <v>11.5</v>
       </c>
       <c r="AB11">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="s">
         <v>149</v>
@@ -1847,19 +1847,19 @@
         <v>27</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="I12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J12">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1874,10 +1874,10 @@
         <v>12</v>
       </c>
       <c r="O12">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P12">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -1889,31 +1889,31 @@
         <v>2</v>
       </c>
       <c r="T12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U12">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="V12">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W12">
-        <v>0.475</v>
+        <v>0.485</v>
       </c>
       <c r="Y12">
         <v>0.667</v>
       </c>
       <c r="Z12">
-        <v>8.1</v>
+        <v>10.3</v>
       </c>
       <c r="AA12">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AB12">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AC12">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD12" t="s">
         <v>149</v>
@@ -1936,76 +1936,76 @@
         <v>22</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="H13">
-        <v>1550</v>
+        <v>570</v>
       </c>
       <c r="I13">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="J13">
-        <v>548</v>
+        <v>197</v>
       </c>
       <c r="K13">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L13">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="N13">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="O13">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="P13">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="Q13">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="R13">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="S13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="T13">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="U13">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="V13">
-        <v>640</v>
+        <v>203</v>
       </c>
       <c r="W13">
-        <v>0.427</v>
+        <v>0.411</v>
       </c>
       <c r="X13">
-        <v>0.273</v>
+        <v>0.188</v>
       </c>
       <c r="Y13">
-        <v>0.733</v>
+        <v>0.66</v>
       </c>
       <c r="Z13">
-        <v>10.3</v>
+        <v>11.6</v>
       </c>
       <c r="AA13">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AB13">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AC13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD13" t="s">
         <v>149</v>
@@ -2028,76 +2028,76 @@
         <v>23</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>459</v>
+        <v>16</v>
       </c>
       <c r="H14">
-        <v>7590</v>
+        <v>70</v>
       </c>
       <c r="I14">
-        <v>1030</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>2496</v>
+        <v>16</v>
       </c>
       <c r="K14">
-        <v>344</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>896</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>609</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>724</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>863</v>
+        <v>6</v>
       </c>
       <c r="Q14">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>297</v>
+        <v>6</v>
       </c>
       <c r="U14">
-        <v>704</v>
+        <v>8</v>
       </c>
       <c r="V14">
-        <v>3013</v>
+        <v>19</v>
       </c>
       <c r="W14">
-        <v>0.413</v>
+        <v>0.438</v>
       </c>
       <c r="X14">
-        <v>0.384</v>
+        <v>0.333</v>
       </c>
       <c r="Y14">
-        <v>0.841</v>
+        <v>0.667</v>
       </c>
       <c r="Z14">
-        <v>16.5</v>
+        <v>4.4</v>
       </c>
       <c r="AA14">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="AB14">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="AC14">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AD14" t="s">
         <v>149</v>
@@ -2212,73 +2212,73 @@
         <v>23</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>421</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>5649</v>
+        <v>442</v>
       </c>
       <c r="I16">
-        <v>915</v>
+        <v>67</v>
       </c>
       <c r="J16">
-        <v>2083</v>
+        <v>141</v>
       </c>
       <c r="K16">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>686</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="N16">
-        <v>281</v>
+        <v>28</v>
       </c>
       <c r="O16">
-        <v>308</v>
+        <v>31</v>
       </c>
       <c r="P16">
-        <v>1115</v>
+        <v>101</v>
       </c>
       <c r="Q16">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="R16">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="S16">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="T16">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="U16">
-        <v>789</v>
+        <v>64</v>
       </c>
       <c r="V16">
-        <v>2312</v>
+        <v>155</v>
       </c>
       <c r="W16">
-        <v>0.439</v>
+        <v>0.475</v>
       </c>
       <c r="X16">
-        <v>0.382</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0.783</v>
+        <v>0.75</v>
       </c>
       <c r="Z16">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
       <c r="AA16">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="AB16">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AC16">
         <v>0.6</v>
@@ -2304,76 +2304,73 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H17">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="I17">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>3</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>6</v>
       </c>
-      <c r="O17">
-        <v>5</v>
-      </c>
-      <c r="P17">
-        <v>13</v>
-      </c>
       <c r="Q17">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="V17">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="W17">
-        <v>0.333</v>
+        <v>0.259</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
-      <c r="Y17">
-        <v>0.5</v>
-      </c>
       <c r="Z17">
-        <v>9.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA17">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AC17">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="AD17" t="s">
         <v>149</v>
@@ -2396,76 +2393,76 @@
         <v>23</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>548</v>
+        <v>56</v>
       </c>
       <c r="H18">
-        <v>11707</v>
+        <v>1039</v>
       </c>
       <c r="I18">
-        <v>1772</v>
+        <v>203</v>
       </c>
       <c r="J18">
-        <v>3933</v>
+        <v>411</v>
       </c>
       <c r="K18">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="L18">
-        <v>439</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>672</v>
+        <v>60</v>
       </c>
       <c r="N18">
-        <v>932</v>
+        <v>78</v>
       </c>
       <c r="O18">
-        <v>521</v>
+        <v>66</v>
       </c>
       <c r="P18">
-        <v>1552</v>
+        <v>146</v>
       </c>
       <c r="Q18">
-        <v>966</v>
+        <v>116</v>
       </c>
       <c r="R18">
-        <v>509</v>
+        <v>53</v>
       </c>
       <c r="S18">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="T18">
-        <v>644</v>
+        <v>44</v>
       </c>
       <c r="U18">
-        <v>882</v>
+        <v>51</v>
       </c>
       <c r="V18">
-        <v>4319</v>
+        <v>477</v>
       </c>
       <c r="W18">
-        <v>0.451</v>
+        <v>0.494</v>
       </c>
       <c r="X18">
-        <v>0.235</v>
+        <v>0.306</v>
       </c>
       <c r="Y18">
-        <v>0.721</v>
+        <v>0.769</v>
       </c>
       <c r="Z18">
-        <v>21.4</v>
+        <v>18.6</v>
       </c>
       <c r="AA18">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AB18">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AC18">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AD18" t="s">
         <v>149</v>
@@ -2488,76 +2485,76 @@
         <v>23</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>67</v>
-      </c>
       <c r="H19">
-        <v>498</v>
+        <v>23</v>
       </c>
       <c r="I19">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
         <v>5</v>
       </c>
-      <c r="T19">
-        <v>21</v>
-      </c>
-      <c r="U19">
-        <v>70</v>
-      </c>
-      <c r="V19">
-        <v>156</v>
-      </c>
       <c r="W19">
-        <v>0.373</v>
+        <v>0.4</v>
       </c>
       <c r="X19">
-        <v>0.329</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.724</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="AA19">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="AB19">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AC19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="s">
         <v>149</v>
@@ -2580,76 +2577,76 @@
         <v>21</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1064</v>
+        <v>76</v>
       </c>
       <c r="H20">
-        <v>28768</v>
+        <v>1919</v>
       </c>
       <c r="I20">
-        <v>3805</v>
+        <v>140</v>
       </c>
       <c r="J20">
-        <v>7711</v>
+        <v>313</v>
       </c>
       <c r="K20">
-        <v>475</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>1413</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>1054</v>
+        <v>56</v>
       </c>
       <c r="N20">
-        <v>1470</v>
+        <v>93</v>
       </c>
       <c r="O20">
-        <v>1258</v>
+        <v>111</v>
       </c>
       <c r="P20">
-        <v>4634</v>
+        <v>342</v>
       </c>
       <c r="Q20">
-        <v>3684</v>
+        <v>182</v>
       </c>
       <c r="R20">
-        <v>648</v>
+        <v>59</v>
       </c>
       <c r="S20">
-        <v>510</v>
+        <v>37</v>
       </c>
       <c r="T20">
-        <v>1897</v>
+        <v>126</v>
       </c>
       <c r="U20">
-        <v>2269</v>
+        <v>191</v>
       </c>
       <c r="V20">
-        <v>9139</v>
+        <v>342</v>
       </c>
       <c r="W20">
-        <v>0.493</v>
+        <v>0.447</v>
       </c>
       <c r="X20">
-        <v>0.336</v>
+        <v>0.231</v>
       </c>
       <c r="Y20">
-        <v>0.717</v>
+        <v>0.602</v>
       </c>
       <c r="Z20">
-        <v>27</v>
+        <v>25.3</v>
       </c>
       <c r="AA20">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
       <c r="AB20">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AC20">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD20" t="s">
         <v>149</v>
@@ -2672,76 +2669,73 @@
         <v>25</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>19</v>
-      </c>
       <c r="H21">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
         <v>3</v>
       </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
+      <c r="V21">
+        <v>7</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>0.5</v>
+      </c>
+      <c r="Z21">
         <v>4</v>
       </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>12</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3</v>
-      </c>
-      <c r="U21">
-        <v>9</v>
-      </c>
-      <c r="V21">
-        <v>22</v>
-      </c>
-      <c r="W21">
-        <v>0.4</v>
-      </c>
-      <c r="X21">
-        <v>0.333</v>
-      </c>
-      <c r="Y21">
-        <v>0.75</v>
-      </c>
-      <c r="Z21">
-        <v>4.5</v>
-      </c>
       <c r="AA21">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="AB21">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AC21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="s">
         <v>149</v>
@@ -2764,76 +2758,76 @@
         <v>23</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="H22">
-        <v>1758</v>
+        <v>893</v>
       </c>
       <c r="I22">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="J22">
-        <v>510</v>
+        <v>282</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="N22">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="O22">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="P22">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="R22">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="S22">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="T22">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="U22">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="V22">
-        <v>555</v>
+        <v>292</v>
       </c>
       <c r="W22">
-        <v>0.427</v>
+        <v>0.394</v>
       </c>
       <c r="X22">
-        <v>0.385</v>
+        <v>0.444</v>
       </c>
       <c r="Y22">
-        <v>0.5590000000000001</v>
+        <v>0.629</v>
       </c>
       <c r="Z22">
-        <v>11.2</v>
+        <v>19</v>
       </c>
       <c r="AA22">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="AB22">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="AC22">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD22" t="s">
         <v>149</v>
@@ -2856,73 +2850,70 @@
         <v>19</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
         <v>2</v>
       </c>
-      <c r="G23">
-        <v>19</v>
-      </c>
-      <c r="H23">
-        <v>86</v>
-      </c>
-      <c r="I23">
-        <v>17</v>
-      </c>
-      <c r="J23">
-        <v>35</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
         <v>6</v>
       </c>
-      <c r="N23">
+      <c r="V23">
         <v>13</v>
       </c>
-      <c r="O23">
-        <v>8</v>
-      </c>
-      <c r="P23">
-        <v>19</v>
-      </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23">
-        <v>5</v>
-      </c>
-      <c r="T23">
-        <v>6</v>
-      </c>
-      <c r="U23">
-        <v>13</v>
-      </c>
-      <c r="V23">
-        <v>40</v>
-      </c>
       <c r="W23">
-        <v>0.486</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="Y23">
-        <v>0.462</v>
+        <v>0.25</v>
       </c>
       <c r="Z23">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="AA23">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AC23">
         <v>0.2</v>
@@ -2948,76 +2939,76 @@
         <v>27</v>
       </c>
       <c r="F24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>472</v>
+        <v>62</v>
       </c>
       <c r="H24">
-        <v>7207</v>
+        <v>875</v>
       </c>
       <c r="I24">
-        <v>725</v>
+        <v>94</v>
       </c>
       <c r="J24">
-        <v>1517</v>
+        <v>199</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="N24">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="O24">
-        <v>497</v>
+        <v>65</v>
       </c>
       <c r="P24">
-        <v>1638</v>
+        <v>203</v>
       </c>
       <c r="Q24">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="R24">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="S24">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="T24">
-        <v>355</v>
+        <v>35</v>
       </c>
       <c r="U24">
-        <v>1000</v>
+        <v>145</v>
       </c>
       <c r="V24">
-        <v>1726</v>
+        <v>218</v>
       </c>
       <c r="W24">
-        <v>0.478</v>
+        <v>0.472</v>
       </c>
       <c r="X24">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>0.7</v>
+        <v>0.667</v>
       </c>
       <c r="Z24">
-        <v>15.3</v>
+        <v>14.1</v>
       </c>
       <c r="AA24">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AB24">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AC24">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD24" t="s">
         <v>149</v>
@@ -3132,76 +3123,76 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>429</v>
+        <v>55</v>
       </c>
       <c r="H26">
-        <v>11882</v>
+        <v>1472</v>
       </c>
       <c r="I26">
-        <v>1829</v>
+        <v>153</v>
       </c>
       <c r="J26">
-        <v>4223</v>
+        <v>398</v>
       </c>
       <c r="K26">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>439</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>1012</v>
+        <v>80</v>
       </c>
       <c r="N26">
-        <v>1242</v>
+        <v>98</v>
       </c>
       <c r="O26">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="P26">
-        <v>1331</v>
+        <v>177</v>
       </c>
       <c r="Q26">
-        <v>2495</v>
+        <v>356</v>
       </c>
       <c r="R26">
-        <v>496</v>
+        <v>60</v>
       </c>
       <c r="S26">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="T26">
-        <v>1047</v>
+        <v>139</v>
       </c>
       <c r="U26">
-        <v>972</v>
+        <v>123</v>
       </c>
       <c r="V26">
-        <v>4797</v>
+        <v>391</v>
       </c>
       <c r="W26">
-        <v>0.433</v>
+        <v>0.384</v>
       </c>
       <c r="X26">
-        <v>0.289</v>
+        <v>0.238</v>
       </c>
       <c r="Y26">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="Z26">
-        <v>27.7</v>
+        <v>26.8</v>
       </c>
       <c r="AA26">
-        <v>11.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB26">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AC26">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AD26" t="s">
         <v>149</v>
@@ -3224,76 +3215,76 @@
         <v>26</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>54</v>
+      </c>
+      <c r="H27">
+        <v>469</v>
+      </c>
+      <c r="I27">
+        <v>63</v>
+      </c>
+      <c r="J27">
+        <v>139</v>
+      </c>
+      <c r="K27">
+        <v>34</v>
+      </c>
+      <c r="L27">
+        <v>92</v>
+      </c>
+      <c r="M27">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>26</v>
+      </c>
+      <c r="O27">
+        <v>12</v>
+      </c>
+      <c r="P27">
+        <v>56</v>
+      </c>
+      <c r="Q27">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>16</v>
+      </c>
+      <c r="S27">
         <v>4</v>
       </c>
-      <c r="G27">
-        <v>140</v>
-      </c>
-      <c r="H27">
-        <v>1473</v>
-      </c>
-      <c r="I27">
-        <v>178</v>
-      </c>
-      <c r="J27">
-        <v>433</v>
-      </c>
-      <c r="K27">
-        <v>95</v>
-      </c>
-      <c r="L27">
-        <v>267</v>
-      </c>
-      <c r="M27">
-        <v>51</v>
-      </c>
-      <c r="N27">
-        <v>63</v>
-      </c>
-      <c r="O27">
-        <v>36</v>
-      </c>
-      <c r="P27">
-        <v>164</v>
-      </c>
-      <c r="Q27">
-        <v>83</v>
-      </c>
-      <c r="R27">
-        <v>37</v>
-      </c>
-      <c r="S27">
-        <v>10</v>
-      </c>
       <c r="T27">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="U27">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="V27">
-        <v>502</v>
+        <v>183</v>
       </c>
       <c r="W27">
-        <v>0.411</v>
+        <v>0.453</v>
       </c>
       <c r="X27">
-        <v>0.356</v>
+        <v>0.37</v>
       </c>
       <c r="Y27">
-        <v>0.8100000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="Z27">
-        <v>10.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB27">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD27" t="s">
         <v>149</v>
@@ -3405,76 +3396,76 @@
         <v>23</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>364</v>
+      </c>
+      <c r="I29">
+        <v>25</v>
+      </c>
+      <c r="J29">
+        <v>86</v>
+      </c>
+      <c r="K29">
         <v>3</v>
       </c>
-      <c r="G29">
-        <v>71</v>
-      </c>
-      <c r="H29">
-        <v>605</v>
-      </c>
-      <c r="I29">
-        <v>48</v>
-      </c>
-      <c r="J29">
-        <v>148</v>
-      </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
       <c r="L29">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N29">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="O29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P29">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R29">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="U29">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="V29">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="W29">
-        <v>0.324</v>
+        <v>0.291</v>
       </c>
       <c r="X29">
-        <v>0.269</v>
+        <v>0.3</v>
       </c>
       <c r="Y29">
-        <v>0.606</v>
+        <v>0.64</v>
       </c>
       <c r="Z29">
-        <v>8.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA29">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AB29">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AD29" t="s">
         <v>149</v>
@@ -3497,76 +3488,73 @@
         <v>23</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
       <c r="H30">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="I30">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="W30">
-        <v>0.322</v>
-      </c>
-      <c r="X30">
-        <v>0.278</v>
+        <v>0.143</v>
       </c>
       <c r="Y30">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="Z30">
-        <v>15.9</v>
+        <v>6.5</v>
       </c>
       <c r="AA30">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="AB30">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="s">
         <v>149</v>
@@ -3589,76 +3577,76 @@
         <v>22</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>731</v>
+        <v>53</v>
       </c>
       <c r="H31">
-        <v>14783</v>
+        <v>767</v>
       </c>
       <c r="I31">
-        <v>2417</v>
+        <v>143</v>
       </c>
       <c r="J31">
-        <v>5682</v>
+        <v>357</v>
       </c>
       <c r="K31">
-        <v>517</v>
+        <v>19</v>
       </c>
       <c r="L31">
-        <v>1494</v>
+        <v>61</v>
       </c>
       <c r="M31">
-        <v>708</v>
+        <v>59</v>
       </c>
       <c r="N31">
-        <v>925</v>
+        <v>81</v>
       </c>
       <c r="O31">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="P31">
-        <v>1303</v>
+        <v>65</v>
       </c>
       <c r="Q31">
-        <v>1018</v>
+        <v>53</v>
       </c>
       <c r="R31">
-        <v>393</v>
+        <v>26</v>
       </c>
       <c r="S31">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>705</v>
+        <v>59</v>
       </c>
       <c r="U31">
-        <v>1259</v>
+        <v>83</v>
       </c>
       <c r="V31">
-        <v>6059</v>
+        <v>364</v>
       </c>
       <c r="W31">
-        <v>0.425</v>
+        <v>0.401</v>
       </c>
       <c r="X31">
-        <v>0.346</v>
+        <v>0.311</v>
       </c>
       <c r="Y31">
-        <v>0.765</v>
+        <v>0.728</v>
       </c>
       <c r="Z31">
-        <v>20.2</v>
+        <v>14.5</v>
       </c>
       <c r="AA31">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="AB31">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AC31">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="s">
         <v>149</v>
@@ -3681,76 +3669,73 @@
         <v>30</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H32">
-        <v>469</v>
+        <v>172</v>
       </c>
       <c r="I32">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>18</v>
+      </c>
+      <c r="N32">
+        <v>27</v>
+      </c>
+      <c r="O32">
+        <v>22</v>
+      </c>
+      <c r="P32">
+        <v>55</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32">
+        <v>32</v>
+      </c>
+      <c r="V32">
         <v>68</v>
       </c>
-      <c r="J32">
-        <v>130</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>27</v>
-      </c>
-      <c r="N32">
-        <v>44</v>
-      </c>
-      <c r="O32">
-        <v>45</v>
-      </c>
-      <c r="P32">
-        <v>120</v>
-      </c>
-      <c r="Q32">
-        <v>19</v>
-      </c>
-      <c r="R32">
-        <v>10</v>
-      </c>
-      <c r="S32">
-        <v>9</v>
-      </c>
-      <c r="T32">
-        <v>28</v>
-      </c>
-      <c r="U32">
-        <v>87</v>
-      </c>
-      <c r="V32">
-        <v>163</v>
-      </c>
       <c r="W32">
-        <v>0.523</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
+        <v>0.532</v>
       </c>
       <c r="Y32">
-        <v>0.614</v>
+        <v>0.667</v>
       </c>
       <c r="Z32">
-        <v>12.3</v>
+        <v>10.1</v>
       </c>
       <c r="AA32">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AB32">
         <v>3.2</v>
       </c>
       <c r="AC32">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD32" t="s">
         <v>149</v>
@@ -3865,76 +3850,76 @@
         <v>23</v>
       </c>
       <c r="F34">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>857</v>
+        <v>75</v>
       </c>
       <c r="H34">
-        <v>21539</v>
+        <v>1795</v>
       </c>
       <c r="I34">
-        <v>2640</v>
+        <v>205</v>
       </c>
       <c r="J34">
-        <v>5395</v>
+        <v>447</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>1232</v>
+        <v>140</v>
       </c>
       <c r="N34">
-        <v>1631</v>
+        <v>183</v>
       </c>
       <c r="O34">
-        <v>1606</v>
+        <v>189</v>
       </c>
       <c r="P34">
-        <v>5746</v>
+        <v>473</v>
       </c>
       <c r="Q34">
-        <v>729</v>
+        <v>51</v>
       </c>
       <c r="R34">
-        <v>422</v>
+        <v>33</v>
       </c>
       <c r="S34">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="T34">
-        <v>803</v>
+        <v>74</v>
       </c>
       <c r="U34">
-        <v>2040</v>
+        <v>197</v>
       </c>
       <c r="V34">
-        <v>6516</v>
+        <v>550</v>
       </c>
       <c r="W34">
-        <v>0.489</v>
+        <v>0.459</v>
       </c>
       <c r="X34">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.755</v>
+        <v>0.765</v>
       </c>
       <c r="Z34">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="AA34">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB34">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AC34">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD34" t="s">
         <v>149</v>
@@ -3957,76 +3942,76 @@
         <v>22</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>427</v>
+        <v>70</v>
       </c>
       <c r="H35">
-        <v>9898</v>
+        <v>2044</v>
       </c>
       <c r="I35">
-        <v>1397</v>
+        <v>278</v>
       </c>
       <c r="J35">
-        <v>3363</v>
+        <v>695</v>
       </c>
       <c r="K35">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="L35">
-        <v>1101</v>
+        <v>131</v>
       </c>
       <c r="M35">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="N35">
-        <v>460</v>
+        <v>98</v>
       </c>
       <c r="O35">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="P35">
-        <v>1330</v>
+        <v>264</v>
       </c>
       <c r="Q35">
-        <v>459</v>
+        <v>106</v>
       </c>
       <c r="R35">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="S35">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="T35">
-        <v>374</v>
+        <v>110</v>
       </c>
       <c r="U35">
-        <v>852</v>
+        <v>157</v>
       </c>
       <c r="V35">
-        <v>3553</v>
+        <v>673</v>
       </c>
       <c r="W35">
-        <v>0.415</v>
+        <v>0.4</v>
       </c>
       <c r="X35">
-        <v>0.356</v>
+        <v>0.305</v>
       </c>
       <c r="Y35">
-        <v>0.798</v>
+        <v>0.786</v>
       </c>
       <c r="Z35">
-        <v>23.2</v>
+        <v>29.2</v>
       </c>
       <c r="AA35">
-        <v>8.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AB35">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="AC35">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AD35" t="s">
         <v>149</v>
@@ -4049,76 +4034,76 @@
         <v>23</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>879</v>
+        <v>76</v>
       </c>
       <c r="H36">
-        <v>27015</v>
+        <v>2706</v>
       </c>
       <c r="I36">
-        <v>3503</v>
+        <v>318</v>
       </c>
       <c r="J36">
-        <v>8522</v>
+        <v>823</v>
       </c>
       <c r="K36">
-        <v>1172</v>
+        <v>144</v>
       </c>
       <c r="L36">
-        <v>3122</v>
+        <v>369</v>
       </c>
       <c r="M36">
-        <v>1416</v>
+        <v>135</v>
       </c>
       <c r="N36">
-        <v>1770</v>
+        <v>168</v>
       </c>
       <c r="O36">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="P36">
-        <v>2576</v>
+        <v>259</v>
       </c>
       <c r="Q36">
-        <v>4245</v>
+        <v>517</v>
       </c>
       <c r="R36">
-        <v>972</v>
+        <v>101</v>
       </c>
       <c r="S36">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="T36">
-        <v>1617</v>
+        <v>204</v>
       </c>
       <c r="U36">
-        <v>2487</v>
+        <v>276</v>
       </c>
       <c r="V36">
-        <v>9594</v>
+        <v>915</v>
       </c>
       <c r="W36">
-        <v>0.411</v>
+        <v>0.386</v>
       </c>
       <c r="X36">
-        <v>0.375</v>
+        <v>0.39</v>
       </c>
       <c r="Y36">
-        <v>0.8</v>
+        <v>0.804</v>
       </c>
       <c r="Z36">
-        <v>30.7</v>
+        <v>35.6</v>
       </c>
       <c r="AA36">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="AB36">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AC36">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="AD36" t="s">
         <v>149</v>
@@ -4141,76 +4126,76 @@
         <v>23</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>507</v>
+        <v>67</v>
       </c>
       <c r="H37">
-        <v>15350</v>
+        <v>1589</v>
       </c>
       <c r="I37">
-        <v>2759</v>
+        <v>229</v>
       </c>
       <c r="J37">
-        <v>6161</v>
+        <v>532</v>
       </c>
       <c r="K37">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="L37">
-        <v>1029</v>
+        <v>66</v>
       </c>
       <c r="M37">
-        <v>1410</v>
+        <v>97</v>
       </c>
       <c r="N37">
-        <v>1830</v>
+        <v>138</v>
       </c>
       <c r="O37">
-        <v>846</v>
+        <v>149</v>
       </c>
       <c r="P37">
-        <v>2886</v>
+        <v>368</v>
       </c>
       <c r="Q37">
-        <v>817</v>
+        <v>97</v>
       </c>
       <c r="R37">
-        <v>530</v>
+        <v>69</v>
       </c>
       <c r="S37">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="T37">
-        <v>723</v>
+        <v>67</v>
       </c>
       <c r="U37">
-        <v>1297</v>
+        <v>168</v>
       </c>
       <c r="V37">
-        <v>7270</v>
+        <v>575</v>
       </c>
       <c r="W37">
-        <v>0.448</v>
+        <v>0.43</v>
       </c>
       <c r="X37">
-        <v>0.332</v>
+        <v>0.303</v>
       </c>
       <c r="Y37">
-        <v>0.77</v>
+        <v>0.703</v>
       </c>
       <c r="Z37">
-        <v>30.3</v>
+        <v>23.7</v>
       </c>
       <c r="AA37">
-        <v>14.3</v>
+        <v>8.6</v>
       </c>
       <c r="AB37">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AC37">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AD37" t="s">
         <v>149</v>
@@ -4233,19 +4218,19 @@
         <v>23</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>630</v>
+        <v>406</v>
       </c>
       <c r="I38">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="J38">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4254,55 +4239,55 @@
         <v>3</v>
       </c>
       <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>43</v>
+      </c>
+      <c r="O38">
+        <v>50</v>
+      </c>
+      <c r="P38">
+        <v>118</v>
+      </c>
+      <c r="Q38">
+        <v>19</v>
+      </c>
+      <c r="R38">
+        <v>13</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>22</v>
+      </c>
+      <c r="U38">
         <v>40</v>
       </c>
-      <c r="N38">
-        <v>82</v>
-      </c>
-      <c r="O38">
-        <v>75</v>
-      </c>
-      <c r="P38">
-        <v>187</v>
-      </c>
-      <c r="Q38">
-        <v>22</v>
-      </c>
-      <c r="R38">
-        <v>17</v>
-      </c>
-      <c r="S38">
-        <v>8</v>
-      </c>
-      <c r="T38">
-        <v>44</v>
-      </c>
-      <c r="U38">
-        <v>82</v>
-      </c>
       <c r="V38">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="W38">
-        <v>0.476</v>
+        <v>0.457</v>
       </c>
       <c r="X38">
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.488</v>
+        <v>0.442</v>
       </c>
       <c r="Z38">
-        <v>9.4</v>
+        <v>11.3</v>
       </c>
       <c r="AA38">
+        <v>3.5</v>
+      </c>
+      <c r="AB38">
         <v>3.3</v>
       </c>
-      <c r="AB38">
-        <v>2.8</v>
-      </c>
       <c r="AC38">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD38" t="s">
         <v>149</v>
@@ -4325,76 +4310,76 @@
         <v>19</v>
       </c>
       <c r="F39">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>1260</v>
+        <v>79</v>
       </c>
       <c r="H39">
-        <v>48398</v>
+        <v>3122</v>
       </c>
       <c r="I39">
-        <v>12437</v>
+        <v>622</v>
       </c>
       <c r="J39">
-        <v>24688</v>
+        <v>1492</v>
       </c>
       <c r="K39">
-        <v>1864</v>
+        <v>63</v>
       </c>
       <c r="L39">
-        <v>5421</v>
+        <v>217</v>
       </c>
       <c r="M39">
-        <v>7385</v>
+        <v>347</v>
       </c>
       <c r="N39">
-        <v>10053</v>
+        <v>460</v>
       </c>
       <c r="O39">
-        <v>1505</v>
+        <v>99</v>
       </c>
       <c r="P39">
-        <v>9374</v>
+        <v>432</v>
       </c>
       <c r="Q39">
-        <v>9310</v>
+        <v>465</v>
       </c>
       <c r="R39">
-        <v>2012</v>
+        <v>130</v>
       </c>
       <c r="S39">
-        <v>953</v>
+        <v>58</v>
       </c>
       <c r="T39">
-        <v>4411</v>
+        <v>273</v>
       </c>
       <c r="U39">
-        <v>2317</v>
+        <v>149</v>
       </c>
       <c r="V39">
-        <v>34123</v>
+        <v>1654</v>
       </c>
       <c r="W39">
-        <v>0.504</v>
+        <v>0.417</v>
       </c>
       <c r="X39">
-        <v>0.344</v>
+        <v>0.29</v>
       </c>
       <c r="Y39">
-        <v>0.735</v>
+        <v>0.754</v>
       </c>
       <c r="Z39">
-        <v>38.4</v>
+        <v>39.5</v>
       </c>
       <c r="AA39">
-        <v>27.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB39">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="AC39">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="AD39" t="s">
         <v>149</v>
@@ -4417,25 +4402,25 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H40">
-        <v>377</v>
+        <v>290</v>
       </c>
       <c r="I40">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J40">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M40">
         <v>7</v>
@@ -4444,34 +4429,34 @@
         <v>16</v>
       </c>
       <c r="O40">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P40">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S40">
         <v>1</v>
       </c>
       <c r="T40">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U40">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V40">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W40">
-        <v>0.284</v>
+        <v>0.288</v>
       </c>
       <c r="X40">
-        <v>0.063</v>
+        <v>0.083</v>
       </c>
       <c r="Y40">
         <v>0.438</v>
@@ -4483,7 +4468,7 @@
         <v>2.1</v>
       </c>
       <c r="AB40">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AC40">
         <v>0.6</v>
@@ -4509,76 +4494,76 @@
         <v>23</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>2111</v>
+        <v>734</v>
       </c>
       <c r="I41">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="J41">
-        <v>574</v>
+        <v>203</v>
       </c>
       <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>33</v>
+      </c>
+      <c r="M41">
+        <v>22</v>
+      </c>
+      <c r="N41">
+        <v>37</v>
+      </c>
+      <c r="O41">
+        <v>59</v>
+      </c>
+      <c r="P41">
+        <v>183</v>
+      </c>
+      <c r="Q41">
+        <v>27</v>
+      </c>
+      <c r="R41">
+        <v>37</v>
+      </c>
+      <c r="S41">
         <v>32</v>
       </c>
-      <c r="L41">
-        <v>105</v>
-      </c>
-      <c r="M41">
-        <v>72</v>
-      </c>
-      <c r="N41">
-        <v>103</v>
-      </c>
-      <c r="O41">
-        <v>159</v>
-      </c>
-      <c r="P41">
-        <v>493</v>
-      </c>
-      <c r="Q41">
-        <v>65</v>
-      </c>
-      <c r="R41">
-        <v>84</v>
-      </c>
-      <c r="S41">
-        <v>63</v>
-      </c>
       <c r="T41">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="U41">
-        <v>271</v>
+        <v>90</v>
       </c>
       <c r="V41">
-        <v>582</v>
+        <v>173</v>
       </c>
       <c r="W41">
-        <v>0.416</v>
+        <v>0.355</v>
       </c>
       <c r="X41">
-        <v>0.305</v>
+        <v>0.212</v>
       </c>
       <c r="Y41">
-        <v>0.699</v>
+        <v>0.595</v>
       </c>
       <c r="Z41">
-        <v>14</v>
+        <v>17.9</v>
       </c>
       <c r="AA41">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AB41">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="AC41">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD41" t="s">
         <v>149</v>
@@ -4601,76 +4586,76 @@
         <v>23</v>
       </c>
       <c r="F42">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>624</v>
+        <v>20</v>
       </c>
       <c r="H42">
-        <v>9799</v>
+        <v>154</v>
       </c>
       <c r="I42">
-        <v>1203</v>
+        <v>15</v>
       </c>
       <c r="J42">
-        <v>2739</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>325</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>840</v>
+        <v>5</v>
       </c>
       <c r="N42">
-        <v>1118</v>
+        <v>11</v>
       </c>
       <c r="O42">
-        <v>252</v>
+        <v>7</v>
       </c>
       <c r="P42">
-        <v>1082</v>
+        <v>23</v>
       </c>
       <c r="Q42">
-        <v>529</v>
+        <v>12</v>
       </c>
       <c r="R42">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="S42">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="T42">
-        <v>507</v>
+        <v>12</v>
       </c>
       <c r="U42">
-        <v>1206</v>
+        <v>23</v>
       </c>
       <c r="V42">
-        <v>3353</v>
+        <v>36</v>
       </c>
       <c r="W42">
-        <v>0.439</v>
+        <v>0.283</v>
       </c>
       <c r="X42">
-        <v>0.329</v>
+        <v>0.25</v>
       </c>
       <c r="Y42">
-        <v>0.751</v>
+        <v>0.455</v>
       </c>
       <c r="Z42">
-        <v>15.7</v>
+        <v>7.7</v>
       </c>
       <c r="AA42">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB42">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AC42">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD42" t="s">
         <v>149</v>
@@ -4693,76 +4678,76 @@
         <v>23</v>
       </c>
       <c r="F43">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>709</v>
+        <v>6</v>
       </c>
       <c r="H43">
-        <v>11098</v>
+        <v>26</v>
       </c>
       <c r="I43">
-        <v>1205</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>3003</v>
+        <v>9</v>
       </c>
       <c r="K43">
-        <v>776</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>1937</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>531</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>632</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>1276</v>
+        <v>2</v>
       </c>
       <c r="Q43">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="S43">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>930</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>3717</v>
+        <v>7</v>
       </c>
       <c r="W43">
-        <v>0.401</v>
+        <v>0.222</v>
       </c>
       <c r="X43">
-        <v>0.401</v>
+        <v>0.25</v>
       </c>
       <c r="Y43">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="Z43">
-        <v>15.7</v>
+        <v>4.3</v>
       </c>
       <c r="AA43">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="AB43">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="AC43">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="s">
         <v>149</v>
@@ -4785,76 +4770,76 @@
         <v>21</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>735</v>
+        <v>82</v>
       </c>
       <c r="H44">
-        <v>19642</v>
+        <v>1843</v>
       </c>
       <c r="I44">
-        <v>3432</v>
+        <v>200</v>
       </c>
       <c r="J44">
-        <v>7023</v>
+        <v>435</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>1343</v>
+        <v>99</v>
       </c>
       <c r="N44">
-        <v>1808</v>
+        <v>142</v>
       </c>
       <c r="O44">
-        <v>1487</v>
+        <v>126</v>
       </c>
       <c r="P44">
-        <v>5582</v>
+        <v>461</v>
       </c>
       <c r="Q44">
-        <v>921</v>
+        <v>85</v>
       </c>
       <c r="R44">
-        <v>322</v>
+        <v>23</v>
       </c>
       <c r="S44">
-        <v>931</v>
+        <v>73</v>
       </c>
       <c r="T44">
-        <v>1544</v>
+        <v>155</v>
       </c>
       <c r="U44">
-        <v>1968</v>
+        <v>211</v>
       </c>
       <c r="V44">
-        <v>8208</v>
+        <v>499</v>
       </c>
       <c r="W44">
-        <v>0.489</v>
+        <v>0.46</v>
       </c>
       <c r="X44">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>0.743</v>
+        <v>0.697</v>
       </c>
       <c r="Z44">
-        <v>26.7</v>
+        <v>22.5</v>
       </c>
       <c r="AA44">
-        <v>11.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB44">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="AC44">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="s">
         <v>149</v>
@@ -4877,76 +4862,76 @@
         <v>22</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>509</v>
+        <v>41</v>
       </c>
       <c r="H45">
-        <v>9068</v>
+        <v>427</v>
       </c>
       <c r="I45">
-        <v>1336</v>
+        <v>52</v>
       </c>
       <c r="J45">
-        <v>3026</v>
+        <v>129</v>
       </c>
       <c r="K45">
-        <v>457</v>
+        <v>21</v>
       </c>
       <c r="L45">
-        <v>1054</v>
+        <v>44</v>
       </c>
       <c r="M45">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="N45">
-        <v>322</v>
+        <v>24</v>
       </c>
       <c r="O45">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="P45">
-        <v>844</v>
+        <v>55</v>
       </c>
       <c r="Q45">
-        <v>417</v>
+        <v>14</v>
       </c>
       <c r="R45">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="S45">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>327</v>
+        <v>21</v>
       </c>
       <c r="U45">
-        <v>777</v>
+        <v>41</v>
       </c>
       <c r="V45">
-        <v>3398</v>
+        <v>145</v>
       </c>
       <c r="W45">
-        <v>0.442</v>
+        <v>0.403</v>
       </c>
       <c r="X45">
-        <v>0.434</v>
+        <v>0.477</v>
       </c>
       <c r="Y45">
-        <v>0.835</v>
+        <v>0.833</v>
       </c>
       <c r="Z45">
-        <v>17.8</v>
+        <v>10.4</v>
       </c>
       <c r="AA45">
-        <v>6.7</v>
+        <v>3.5</v>
       </c>
       <c r="AB45">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AC45">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD45" t="s">
         <v>149</v>
@@ -4969,76 +4954,76 @@
         <v>22</v>
       </c>
       <c r="F46">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>1225</v>
+        <v>74</v>
       </c>
       <c r="H46">
-        <v>31070</v>
+        <v>882</v>
       </c>
       <c r="I46">
-        <v>4090</v>
+        <v>115</v>
       </c>
       <c r="J46">
-        <v>9248</v>
+        <v>327</v>
       </c>
       <c r="K46">
-        <v>2439</v>
+        <v>81</v>
       </c>
       <c r="L46">
-        <v>5690</v>
+        <v>207</v>
       </c>
       <c r="M46">
-        <v>1290</v>
+        <v>19</v>
       </c>
       <c r="N46">
-        <v>1472</v>
+        <v>24</v>
       </c>
       <c r="O46">
-        <v>344</v>
+        <v>30</v>
       </c>
       <c r="P46">
-        <v>3627</v>
+        <v>111</v>
       </c>
       <c r="Q46">
-        <v>2108</v>
+        <v>40</v>
       </c>
       <c r="R46">
-        <v>801</v>
+        <v>25</v>
       </c>
       <c r="S46">
-        <v>403</v>
+        <v>8</v>
       </c>
       <c r="T46">
-        <v>1286</v>
+        <v>41</v>
       </c>
       <c r="U46">
-        <v>2513</v>
+        <v>102</v>
       </c>
       <c r="V46">
-        <v>11909</v>
+        <v>330</v>
       </c>
       <c r="W46">
-        <v>0.442</v>
+        <v>0.352</v>
       </c>
       <c r="X46">
-        <v>0.429</v>
+        <v>0.391</v>
       </c>
       <c r="Y46">
-        <v>0.876</v>
+        <v>0.792</v>
       </c>
       <c r="Z46">
-        <v>25.4</v>
+        <v>11.9</v>
       </c>
       <c r="AA46">
-        <v>9.699999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="AB46">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AC46">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD46" t="s">
         <v>149</v>
@@ -5061,76 +5046,76 @@
         <v>18</v>
       </c>
       <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>21</v>
+      </c>
+      <c r="H47">
+        <v>224</v>
+      </c>
+      <c r="I47">
+        <v>43</v>
+      </c>
+      <c r="J47">
+        <v>88</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>10</v>
+      </c>
+      <c r="N47">
+        <v>13</v>
+      </c>
+      <c r="O47">
+        <v>9</v>
+      </c>
+      <c r="P47">
+        <v>44</v>
+      </c>
+      <c r="Q47">
+        <v>9</v>
+      </c>
+      <c r="R47">
         <v>3</v>
       </c>
-      <c r="G47">
-        <v>64</v>
-      </c>
-      <c r="H47">
-        <v>632</v>
-      </c>
-      <c r="I47">
-        <v>94</v>
-      </c>
-      <c r="J47">
-        <v>231</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>8</v>
-      </c>
-      <c r="M47">
-        <v>25</v>
-      </c>
-      <c r="N47">
-        <v>37</v>
-      </c>
-      <c r="O47">
-        <v>37</v>
-      </c>
-      <c r="P47">
-        <v>142</v>
-      </c>
-      <c r="Q47">
-        <v>22</v>
-      </c>
-      <c r="R47">
-        <v>8</v>
-      </c>
       <c r="S47">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T47">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="U47">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="V47">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="W47">
-        <v>0.407</v>
+        <v>0.489</v>
       </c>
       <c r="X47">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>0.676</v>
+        <v>0.769</v>
       </c>
       <c r="Z47">
-        <v>9.9</v>
+        <v>10.7</v>
       </c>
       <c r="AA47">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="AB47">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AC47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD47" t="s">
         <v>149</v>
@@ -5153,76 +5138,76 @@
         <v>23</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>82</v>
+      </c>
+      <c r="H48">
+        <v>1617</v>
+      </c>
+      <c r="I48">
+        <v>223</v>
+      </c>
+      <c r="J48">
+        <v>517</v>
+      </c>
+      <c r="K48">
+        <v>25</v>
+      </c>
+      <c r="L48">
+        <v>85</v>
+      </c>
+      <c r="M48">
+        <v>101</v>
+      </c>
+      <c r="N48">
+        <v>117</v>
+      </c>
+      <c r="O48">
+        <v>24</v>
+      </c>
+      <c r="P48">
+        <v>155</v>
+      </c>
+      <c r="Q48">
+        <v>305</v>
+      </c>
+      <c r="R48">
+        <v>62</v>
+      </c>
+      <c r="S48">
         <v>2</v>
       </c>
-      <c r="G48">
-        <v>113</v>
-      </c>
-      <c r="H48">
-        <v>2135</v>
-      </c>
-      <c r="I48">
-        <v>280</v>
-      </c>
-      <c r="J48">
-        <v>652</v>
-      </c>
-      <c r="K48">
-        <v>45</v>
-      </c>
-      <c r="L48">
-        <v>130</v>
-      </c>
-      <c r="M48">
-        <v>128</v>
-      </c>
-      <c r="N48">
-        <v>150</v>
-      </c>
-      <c r="O48">
-        <v>31</v>
-      </c>
-      <c r="P48">
-        <v>194</v>
-      </c>
-      <c r="Q48">
-        <v>428</v>
-      </c>
-      <c r="R48">
-        <v>84</v>
-      </c>
-      <c r="S48">
-        <v>5</v>
-      </c>
       <c r="T48">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="U48">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="V48">
-        <v>733</v>
+        <v>572</v>
       </c>
       <c r="W48">
-        <v>0.429</v>
+        <v>0.431</v>
       </c>
       <c r="X48">
-        <v>0.346</v>
+        <v>0.294</v>
       </c>
       <c r="Y48">
-        <v>0.853</v>
+        <v>0.863</v>
       </c>
       <c r="Z48">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="AA48">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB48">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AC48">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD48" t="s">
         <v>149</v>
@@ -5245,76 +5230,76 @@
         <v>24</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>3723</v>
+        <v>391</v>
       </c>
       <c r="I49">
-        <v>363</v>
+        <v>27</v>
       </c>
       <c r="J49">
-        <v>1018</v>
+        <v>82</v>
       </c>
       <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49">
+        <v>33</v>
+      </c>
+      <c r="N49">
+        <v>43</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>34</v>
+      </c>
+      <c r="Q49">
         <v>59</v>
       </c>
-      <c r="L49">
-        <v>209</v>
-      </c>
-      <c r="M49">
-        <v>320</v>
-      </c>
-      <c r="N49">
-        <v>400</v>
-      </c>
-      <c r="O49">
-        <v>40</v>
-      </c>
-      <c r="P49">
-        <v>268</v>
-      </c>
-      <c r="Q49">
-        <v>536</v>
-      </c>
       <c r="R49">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="S49">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="U49">
-        <v>359</v>
+        <v>39</v>
       </c>
       <c r="V49">
-        <v>1105</v>
+        <v>88</v>
       </c>
       <c r="W49">
-        <v>0.357</v>
+        <v>0.329</v>
       </c>
       <c r="X49">
-        <v>0.282</v>
+        <v>0.1</v>
       </c>
       <c r="Y49">
-        <v>0.8</v>
+        <v>0.767</v>
       </c>
       <c r="Z49">
-        <v>18.6</v>
+        <v>11.8</v>
       </c>
       <c r="AA49">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="AB49">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD49" t="s">
         <v>149</v>
@@ -5337,76 +5322,76 @@
         <v>18</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>468</v>
+        <v>34</v>
       </c>
       <c r="H50">
-        <v>8638</v>
+        <v>159</v>
       </c>
       <c r="I50">
-        <v>1196</v>
+        <v>17</v>
       </c>
       <c r="J50">
-        <v>2602</v>
+        <v>65</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>421</v>
+        <v>14</v>
       </c>
       <c r="N50">
-        <v>734</v>
+        <v>24</v>
       </c>
       <c r="O50">
-        <v>628</v>
+        <v>11</v>
       </c>
       <c r="P50">
-        <v>1971</v>
+        <v>43</v>
       </c>
       <c r="Q50">
-        <v>405</v>
+        <v>7</v>
       </c>
       <c r="R50">
-        <v>206</v>
+        <v>7</v>
       </c>
       <c r="S50">
-        <v>613</v>
+        <v>15</v>
       </c>
       <c r="T50">
-        <v>573</v>
+        <v>13</v>
       </c>
       <c r="U50">
-        <v>1065</v>
+        <v>33</v>
       </c>
       <c r="V50">
-        <v>2813</v>
+        <v>48</v>
       </c>
       <c r="W50">
-        <v>0.46</v>
+        <v>0.262</v>
       </c>
       <c r="X50">
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>0.574</v>
+        <v>0.583</v>
       </c>
       <c r="Z50">
-        <v>18.5</v>
+        <v>4.7</v>
       </c>
       <c r="AA50">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="AB50">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC50">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD50" t="s">
         <v>149</v>
@@ -5429,76 +5414,73 @@
         <v>19</v>
       </c>
       <c r="F51">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>622</v>
+        <v>8</v>
       </c>
       <c r="H51">
-        <v>13026</v>
+        <v>19</v>
       </c>
       <c r="I51">
-        <v>1994</v>
+        <v>3</v>
       </c>
       <c r="J51">
-        <v>4713</v>
+        <v>7</v>
       </c>
       <c r="K51">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>941</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>1265</v>
+        <v>4</v>
       </c>
       <c r="O51">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="P51">
-        <v>1974</v>
+        <v>4</v>
       </c>
       <c r="Q51">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>331</v>
+        <v>1</v>
       </c>
       <c r="S51">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="U51">
-        <v>1035</v>
+        <v>1</v>
       </c>
       <c r="V51">
-        <v>5273</v>
+        <v>8</v>
       </c>
       <c r="W51">
-        <v>0.423</v>
-      </c>
-      <c r="X51">
-        <v>0.337</v>
+        <v>0.429</v>
       </c>
       <c r="Y51">
-        <v>0.744</v>
+        <v>0.5</v>
       </c>
       <c r="Z51">
-        <v>20.9</v>
+        <v>2.4</v>
       </c>
       <c r="AA51">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="AB51">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="AC51">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="AD51" t="s">
         <v>149</v>
@@ -5521,76 +5503,73 @@
         <v>19</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>1098</v>
+        <v>59</v>
       </c>
       <c r="H52">
-        <v>22240</v>
+        <v>664</v>
       </c>
       <c r="I52">
-        <v>2608</v>
+        <v>68</v>
       </c>
       <c r="J52">
-        <v>5559</v>
+        <v>175</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>2198</v>
+        <v>58</v>
       </c>
       <c r="N52">
-        <v>2927</v>
+        <v>90</v>
       </c>
       <c r="O52">
-        <v>2362</v>
+        <v>69</v>
       </c>
       <c r="P52">
-        <v>6315</v>
+        <v>174</v>
       </c>
       <c r="Q52">
-        <v>1433</v>
+        <v>13</v>
       </c>
       <c r="R52">
-        <v>768</v>
+        <v>21</v>
       </c>
       <c r="S52">
-        <v>378</v>
+        <v>12</v>
       </c>
       <c r="T52">
-        <v>1444</v>
+        <v>34</v>
       </c>
       <c r="U52">
-        <v>2738</v>
+        <v>87</v>
       </c>
       <c r="V52">
-        <v>7414</v>
+        <v>194</v>
       </c>
       <c r="W52">
-        <v>0.469</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
+        <v>0.389</v>
       </c>
       <c r="Y52">
-        <v>0.751</v>
+        <v>0.644</v>
       </c>
       <c r="Z52">
-        <v>20.3</v>
+        <v>11.3</v>
       </c>
       <c r="AA52">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="AB52">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="AC52">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD52" t="s">
         <v>149</v>
@@ -5613,76 +5592,76 @@
         <v>20</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="H53">
-        <v>8888</v>
+        <v>1144</v>
       </c>
       <c r="I53">
-        <v>1070</v>
+        <v>149</v>
       </c>
       <c r="J53">
-        <v>2651</v>
+        <v>376</v>
       </c>
       <c r="K53">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="L53">
-        <v>890</v>
+        <v>70</v>
       </c>
       <c r="M53">
-        <v>339</v>
+        <v>65</v>
       </c>
       <c r="N53">
-        <v>504</v>
+        <v>84</v>
       </c>
       <c r="O53">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="P53">
-        <v>1000</v>
+        <v>159</v>
       </c>
       <c r="Q53">
-        <v>517</v>
+        <v>60</v>
       </c>
       <c r="R53">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="S53">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="T53">
-        <v>460</v>
+        <v>67</v>
       </c>
       <c r="U53">
-        <v>1026</v>
+        <v>187</v>
       </c>
       <c r="V53">
-        <v>2787</v>
+        <v>382</v>
       </c>
       <c r="W53">
-        <v>0.404</v>
+        <v>0.396</v>
       </c>
       <c r="X53">
-        <v>0.346</v>
+        <v>0.271</v>
       </c>
       <c r="Y53">
-        <v>0.673</v>
+        <v>0.774</v>
       </c>
       <c r="Z53">
-        <v>15.7</v>
+        <v>14.5</v>
       </c>
       <c r="AA53">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AB53">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AC53">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD53" t="s">
         <v>149</v>
@@ -5794,73 +5773,73 @@
         <v>23</v>
       </c>
       <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>2</v>
       </c>
-      <c r="G55">
+      <c r="H55">
+        <v>18</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
         <v>6</v>
       </c>
-      <c r="H55">
-        <v>30</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="J55">
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>0.167</v>
+      </c>
+      <c r="X55">
+        <v>0.333</v>
+      </c>
+      <c r="Z55">
         <v>9</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>4</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>2</v>
-      </c>
-      <c r="Q55">
-        <v>2</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>5</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="V55">
-        <v>5</v>
-      </c>
-      <c r="W55">
-        <v>0.222</v>
-      </c>
-      <c r="X55">
-        <v>0.25</v>
-      </c>
-      <c r="Z55">
-        <v>5</v>
-      </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AB55">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AC55">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD55" t="s">
         <v>149</v>
@@ -5883,76 +5862,73 @@
         <v>19</v>
       </c>
       <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>35</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <v>15</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>6</v>
+      </c>
+      <c r="N56">
+        <v>9</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="P56">
         <v>14</v>
       </c>
-      <c r="G56">
-        <v>782</v>
-      </c>
-      <c r="H56">
-        <v>17162</v>
-      </c>
-      <c r="I56">
-        <v>1705</v>
-      </c>
-      <c r="J56">
-        <v>3219</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>14</v>
-      </c>
-      <c r="M56">
-        <v>804</v>
-      </c>
-      <c r="N56">
-        <v>1353</v>
-      </c>
-      <c r="O56">
-        <v>1305</v>
-      </c>
-      <c r="P56">
-        <v>4532</v>
-      </c>
       <c r="Q56">
-        <v>813</v>
+        <v>3</v>
       </c>
       <c r="R56">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>903</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="U56">
-        <v>2142</v>
+        <v>6</v>
       </c>
       <c r="V56">
-        <v>4214</v>
+        <v>22</v>
       </c>
       <c r="W56">
-        <v>0.53</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
+        <v>0.533</v>
       </c>
       <c r="Y56">
-        <v>0.594</v>
+        <v>0.667</v>
       </c>
       <c r="Z56">
-        <v>21.9</v>
+        <v>3.5</v>
       </c>
       <c r="AA56">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="AB56">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD56" t="s">
         <v>149</v>
@@ -5975,76 +5951,76 @@
         <v>21</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>557</v>
+        <v>53</v>
       </c>
       <c r="H57">
-        <v>11950</v>
+        <v>748</v>
       </c>
       <c r="I57">
-        <v>1625</v>
+        <v>96</v>
       </c>
       <c r="J57">
-        <v>3821</v>
+        <v>231</v>
       </c>
       <c r="K57">
-        <v>679</v>
+        <v>35</v>
       </c>
       <c r="L57">
-        <v>1910</v>
+        <v>105</v>
       </c>
       <c r="M57">
-        <v>700</v>
+        <v>52</v>
       </c>
       <c r="N57">
-        <v>1053</v>
+        <v>75</v>
       </c>
       <c r="O57">
-        <v>440</v>
+        <v>48</v>
       </c>
       <c r="P57">
-        <v>1723</v>
+        <v>119</v>
       </c>
       <c r="Q57">
-        <v>445</v>
+        <v>27</v>
       </c>
       <c r="R57">
-        <v>371</v>
+        <v>32</v>
       </c>
       <c r="S57">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="T57">
-        <v>576</v>
+        <v>40</v>
       </c>
       <c r="U57">
-        <v>1270</v>
+        <v>100</v>
       </c>
       <c r="V57">
-        <v>4629</v>
+        <v>279</v>
       </c>
       <c r="W57">
-        <v>0.425</v>
+        <v>0.416</v>
       </c>
       <c r="X57">
-        <v>0.355</v>
+        <v>0.333</v>
       </c>
       <c r="Y57">
-        <v>0.665</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="Z57">
-        <v>21.5</v>
+        <v>14.1</v>
       </c>
       <c r="AA57">
-        <v>8.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="AB57">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC57">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AD57" t="s">
         <v>149</v>
@@ -6067,76 +6043,76 @@
         <v>21</v>
       </c>
       <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>49</v>
+      </c>
+      <c r="H58">
+        <v>473</v>
+      </c>
+      <c r="I58">
+        <v>53</v>
+      </c>
+      <c r="J58">
+        <v>129</v>
+      </c>
+      <c r="K58">
+        <v>9</v>
+      </c>
+      <c r="L58">
+        <v>32</v>
+      </c>
+      <c r="M58">
+        <v>38</v>
+      </c>
+      <c r="N58">
+        <v>60</v>
+      </c>
+      <c r="O58">
+        <v>14</v>
+      </c>
+      <c r="P58">
+        <v>55</v>
+      </c>
+      <c r="Q58">
+        <v>68</v>
+      </c>
+      <c r="R58">
+        <v>13</v>
+      </c>
+      <c r="S58">
         <v>3</v>
       </c>
-      <c r="G58">
-        <v>148</v>
-      </c>
-      <c r="H58">
-        <v>1584</v>
-      </c>
-      <c r="I58">
-        <v>197</v>
-      </c>
-      <c r="J58">
-        <v>486</v>
-      </c>
-      <c r="K58">
-        <v>37</v>
-      </c>
-      <c r="L58">
-        <v>128</v>
-      </c>
-      <c r="M58">
-        <v>130</v>
-      </c>
-      <c r="N58">
-        <v>192</v>
-      </c>
-      <c r="O58">
-        <v>47</v>
-      </c>
-      <c r="P58">
-        <v>198</v>
-      </c>
-      <c r="Q58">
-        <v>165</v>
-      </c>
-      <c r="R58">
-        <v>58</v>
-      </c>
-      <c r="S58">
-        <v>7</v>
-      </c>
       <c r="T58">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="U58">
-        <v>237</v>
+        <v>70</v>
       </c>
       <c r="V58">
-        <v>561</v>
+        <v>153</v>
       </c>
       <c r="W58">
-        <v>0.405</v>
+        <v>0.411</v>
       </c>
       <c r="X58">
-        <v>0.289</v>
+        <v>0.281</v>
       </c>
       <c r="Y58">
-        <v>0.677</v>
+        <v>0.633</v>
       </c>
       <c r="Z58">
-        <v>10.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA58">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="AB58">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AC58">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AD58" t="s">
         <v>149</v>
@@ -6159,76 +6135,76 @@
         <v>22</v>
       </c>
       <c r="F59">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>830</v>
+        <v>69</v>
       </c>
       <c r="H59">
-        <v>21623</v>
+        <v>1114</v>
       </c>
       <c r="I59">
-        <v>2933</v>
+        <v>145</v>
       </c>
       <c r="J59">
-        <v>6803</v>
+        <v>350</v>
       </c>
       <c r="K59">
-        <v>584</v>
+        <v>27</v>
       </c>
       <c r="L59">
-        <v>1674</v>
+        <v>80</v>
       </c>
       <c r="M59">
-        <v>1290</v>
+        <v>65</v>
       </c>
       <c r="N59">
-        <v>1496</v>
+        <v>79</v>
       </c>
       <c r="O59">
-        <v>363</v>
+        <v>35</v>
       </c>
       <c r="P59">
-        <v>1877</v>
+        <v>108</v>
       </c>
       <c r="Q59">
-        <v>3713</v>
+        <v>163</v>
       </c>
       <c r="R59">
-        <v>814</v>
+        <v>52</v>
       </c>
       <c r="S59">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="T59">
-        <v>1349</v>
+        <v>80</v>
       </c>
       <c r="U59">
-        <v>1779</v>
+        <v>105</v>
       </c>
       <c r="V59">
-        <v>7740</v>
+        <v>382</v>
       </c>
       <c r="W59">
-        <v>0.431</v>
+        <v>0.414</v>
       </c>
       <c r="X59">
-        <v>0.349</v>
+        <v>0.338</v>
       </c>
       <c r="Y59">
-        <v>0.862</v>
+        <v>0.823</v>
       </c>
       <c r="Z59">
-        <v>26.1</v>
+        <v>16.1</v>
       </c>
       <c r="AA59">
-        <v>9.300000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="AB59">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AC59">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD59" t="s">
         <v>149</v>
@@ -6251,76 +6227,76 @@
         <v>23</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H60">
-        <v>688</v>
+        <v>178</v>
       </c>
       <c r="I60">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J60">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L60">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N60">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O60">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="P60">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="Q60">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="R60">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T60">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="U60">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="V60">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="W60">
-        <v>0.335</v>
+        <v>0.372</v>
       </c>
       <c r="X60">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Y60">
-        <v>0.833</v>
+        <v>0.75</v>
       </c>
       <c r="Z60">
-        <v>13</v>
+        <v>8.9</v>
       </c>
       <c r="AA60">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="AB60">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="AC60">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD60" t="s">
         <v>149</v>
@@ -6343,76 +6319,73 @@
         <v>25</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>495</v>
+        <v>73</v>
       </c>
       <c r="H61">
-        <v>9229</v>
+        <v>976</v>
       </c>
       <c r="I61">
-        <v>1449</v>
+        <v>133</v>
       </c>
       <c r="J61">
-        <v>2904</v>
+        <v>273</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>514</v>
+        <v>71</v>
       </c>
       <c r="N61">
-        <v>609</v>
+        <v>88</v>
       </c>
       <c r="O61">
-        <v>553</v>
+        <v>91</v>
       </c>
       <c r="P61">
-        <v>1689</v>
+        <v>225</v>
       </c>
       <c r="Q61">
-        <v>589</v>
+        <v>48</v>
       </c>
       <c r="R61">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="S61">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="T61">
-        <v>486</v>
+        <v>43</v>
       </c>
       <c r="U61">
-        <v>1197</v>
+        <v>126</v>
       </c>
       <c r="V61">
-        <v>3415</v>
+        <v>337</v>
       </c>
       <c r="W61">
-        <v>0.499</v>
-      </c>
-      <c r="X61">
-        <v>0.158</v>
+        <v>0.487</v>
       </c>
       <c r="Y61">
-        <v>0.844</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="Z61">
-        <v>18.6</v>
+        <v>13.4</v>
       </c>
       <c r="AA61">
-        <v>6.9</v>
+        <v>4.6</v>
       </c>
       <c r="AB61">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AC61">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AD61" t="s">
         <v>149</v>
@@ -6435,76 +6408,76 @@
         <v>21</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>3610</v>
+        <v>494</v>
       </c>
       <c r="I62">
-        <v>564</v>
+        <v>69</v>
       </c>
       <c r="J62">
-        <v>1164</v>
+        <v>140</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="N62">
-        <v>563</v>
+        <v>58</v>
       </c>
       <c r="O62">
-        <v>400</v>
+        <v>68</v>
       </c>
       <c r="P62">
-        <v>1045</v>
+        <v>157</v>
       </c>
       <c r="Q62">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="R62">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="S62">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="T62">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c r="U62">
-        <v>569</v>
+        <v>57</v>
       </c>
       <c r="V62">
-        <v>1516</v>
+        <v>180</v>
       </c>
       <c r="W62">
-        <v>0.485</v>
+        <v>0.493</v>
       </c>
       <c r="X62">
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>0.6889999999999999</v>
+        <v>0.724</v>
       </c>
       <c r="Z62">
-        <v>15.5</v>
+        <v>11.8</v>
       </c>
       <c r="AA62">
-        <v>6.5</v>
+        <v>4.3</v>
       </c>
       <c r="AB62">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AC62">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD62" t="s">
         <v>149</v>
@@ -6527,76 +6500,76 @@
         <v>26</v>
       </c>
       <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>28</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>9</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>5</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>8</v>
+      </c>
+      <c r="W63">
+        <v>0.333</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0.5</v>
+      </c>
+      <c r="Z63">
         <v>7</v>
       </c>
-      <c r="G63">
-        <v>316</v>
-      </c>
-      <c r="H63">
-        <v>5711</v>
-      </c>
-      <c r="I63">
-        <v>614</v>
-      </c>
-      <c r="J63">
-        <v>1471</v>
-      </c>
-      <c r="K63">
-        <v>218</v>
-      </c>
-      <c r="L63">
-        <v>612</v>
-      </c>
-      <c r="M63">
-        <v>189</v>
-      </c>
-      <c r="N63">
-        <v>268</v>
-      </c>
-      <c r="O63">
-        <v>219</v>
-      </c>
-      <c r="P63">
-        <v>926</v>
-      </c>
-      <c r="Q63">
-        <v>308</v>
-      </c>
-      <c r="R63">
-        <v>208</v>
-      </c>
-      <c r="S63">
-        <v>54</v>
-      </c>
-      <c r="T63">
-        <v>221</v>
-      </c>
-      <c r="U63">
-        <v>528</v>
-      </c>
-      <c r="V63">
-        <v>1635</v>
-      </c>
-      <c r="W63">
-        <v>0.417</v>
-      </c>
-      <c r="X63">
-        <v>0.356</v>
-      </c>
-      <c r="Y63">
-        <v>0.705</v>
-      </c>
-      <c r="Z63">
-        <v>18.1</v>
-      </c>
       <c r="AA63">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="AB63">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD63" t="s">
         <v>149</v>
@@ -6705,76 +6678,76 @@
         <v>22</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>61</v>
+      </c>
+      <c r="H65">
+        <v>2126</v>
+      </c>
+      <c r="I65">
+        <v>371</v>
+      </c>
+      <c r="J65">
+        <v>798</v>
+      </c>
+      <c r="K65">
         <v>16</v>
       </c>
-      <c r="G65">
-        <v>1054</v>
-      </c>
-      <c r="H65">
-        <v>35773</v>
-      </c>
-      <c r="I65">
-        <v>8454</v>
-      </c>
-      <c r="J65">
-        <v>17617</v>
-      </c>
-      <c r="K65">
-        <v>549</v>
-      </c>
       <c r="L65">
-        <v>1874</v>
+        <v>53</v>
       </c>
       <c r="M65">
-        <v>5708</v>
+        <v>233</v>
       </c>
       <c r="N65">
-        <v>7463</v>
+        <v>312</v>
       </c>
       <c r="O65">
-        <v>1258</v>
+        <v>85</v>
       </c>
       <c r="P65">
-        <v>4933</v>
+        <v>247</v>
       </c>
       <c r="Q65">
-        <v>5701</v>
+        <v>275</v>
       </c>
       <c r="R65">
-        <v>1620</v>
+        <v>86</v>
       </c>
       <c r="S65">
-        <v>885</v>
+        <v>34</v>
       </c>
       <c r="T65">
-        <v>3326</v>
+        <v>196</v>
       </c>
       <c r="U65">
-        <v>2328</v>
+        <v>140</v>
       </c>
       <c r="V65">
-        <v>23165</v>
+        <v>991</v>
       </c>
       <c r="W65">
-        <v>0.48</v>
+        <v>0.465</v>
       </c>
       <c r="X65">
-        <v>0.293</v>
+        <v>0.302</v>
       </c>
       <c r="Y65">
-        <v>0.765</v>
+        <v>0.747</v>
       </c>
       <c r="Z65">
-        <v>33.9</v>
+        <v>34.9</v>
       </c>
       <c r="AA65">
-        <v>22</v>
+        <v>16.2</v>
       </c>
       <c r="AB65">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AC65">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD65" t="s">
         <v>149</v>
@@ -6797,76 +6770,76 @@
         <v>23</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>564</v>
+        <v>72</v>
       </c>
       <c r="H66">
-        <v>9685</v>
+        <v>730</v>
       </c>
       <c r="I66">
-        <v>1050</v>
+        <v>65</v>
       </c>
       <c r="J66">
-        <v>2449</v>
+        <v>153</v>
       </c>
       <c r="K66">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="L66">
-        <v>558</v>
+        <v>39</v>
       </c>
       <c r="M66">
-        <v>367</v>
+        <v>31</v>
       </c>
       <c r="N66">
-        <v>513</v>
+        <v>44</v>
       </c>
       <c r="O66">
-        <v>481</v>
+        <v>39</v>
       </c>
       <c r="P66">
-        <v>1588</v>
+        <v>127</v>
       </c>
       <c r="Q66">
-        <v>1317</v>
+        <v>113</v>
       </c>
       <c r="R66">
-        <v>313</v>
+        <v>28</v>
       </c>
       <c r="S66">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="T66">
-        <v>597</v>
+        <v>44</v>
       </c>
       <c r="U66">
-        <v>810</v>
+        <v>70</v>
       </c>
       <c r="V66">
-        <v>2649</v>
+        <v>174</v>
       </c>
       <c r="W66">
-        <v>0.429</v>
+        <v>0.425</v>
       </c>
       <c r="X66">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="Y66">
-        <v>0.715</v>
+        <v>0.705</v>
       </c>
       <c r="Z66">
-        <v>17.2</v>
+        <v>10.1</v>
       </c>
       <c r="AA66">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="AB66">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="AC66">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD66" t="s">
         <v>149</v>
@@ -6889,76 +6862,76 @@
         <v>23</v>
       </c>
       <c r="F67">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>1034</v>
+        <v>71</v>
       </c>
       <c r="H67">
-        <v>29144</v>
+        <v>930</v>
       </c>
       <c r="I67">
-        <v>5703</v>
+        <v>108</v>
       </c>
       <c r="J67">
-        <v>11519</v>
+        <v>228</v>
       </c>
       <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
         <v>57</v>
       </c>
-      <c r="L67">
-        <v>215</v>
-      </c>
-      <c r="M67">
-        <v>2571</v>
-      </c>
       <c r="N67">
-        <v>3148</v>
+        <v>80</v>
       </c>
       <c r="O67">
-        <v>1784</v>
+        <v>117</v>
       </c>
       <c r="P67">
-        <v>6590</v>
+        <v>297</v>
       </c>
       <c r="Q67">
-        <v>2273</v>
+        <v>60</v>
       </c>
       <c r="R67">
-        <v>764</v>
+        <v>27</v>
       </c>
       <c r="S67">
-        <v>850</v>
+        <v>28</v>
       </c>
       <c r="T67">
-        <v>1660</v>
+        <v>48</v>
       </c>
       <c r="U67">
-        <v>2408</v>
+        <v>117</v>
       </c>
       <c r="V67">
-        <v>14034</v>
+        <v>273</v>
       </c>
       <c r="W67">
-        <v>0.495</v>
+        <v>0.474</v>
       </c>
       <c r="X67">
-        <v>0.265</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>0.8169999999999999</v>
+        <v>0.713</v>
       </c>
       <c r="Z67">
-        <v>28.2</v>
+        <v>13.1</v>
       </c>
       <c r="AA67">
-        <v>13.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB67">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="AC67">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD67" t="s">
         <v>149</v>
@@ -6981,76 +6954,76 @@
         <v>21</v>
       </c>
       <c r="F68">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>818</v>
+        <v>57</v>
       </c>
       <c r="H68">
-        <v>23872</v>
+        <v>772</v>
       </c>
       <c r="I68">
-        <v>4051</v>
+        <v>115</v>
       </c>
       <c r="J68">
-        <v>9326</v>
+        <v>303</v>
       </c>
       <c r="K68">
-        <v>1094</v>
+        <v>10</v>
       </c>
       <c r="L68">
-        <v>2891</v>
+        <v>39</v>
       </c>
       <c r="M68">
-        <v>1563</v>
+        <v>44</v>
       </c>
       <c r="N68">
-        <v>1795</v>
+        <v>56</v>
       </c>
       <c r="O68">
-        <v>407</v>
+        <v>23</v>
       </c>
       <c r="P68">
-        <v>2264</v>
+        <v>72</v>
       </c>
       <c r="Q68">
-        <v>3990</v>
+        <v>76</v>
       </c>
       <c r="R68">
-        <v>721</v>
+        <v>28</v>
       </c>
       <c r="S68">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>1849</v>
+        <v>51</v>
       </c>
       <c r="U68">
-        <v>2005</v>
+        <v>87</v>
       </c>
       <c r="V68">
-        <v>10759</v>
+        <v>284</v>
       </c>
       <c r="W68">
-        <v>0.434</v>
+        <v>0.38</v>
       </c>
       <c r="X68">
-        <v>0.378</v>
+        <v>0.256</v>
       </c>
       <c r="Y68">
-        <v>0.871</v>
+        <v>0.786</v>
       </c>
       <c r="Z68">
-        <v>29.2</v>
+        <v>13.5</v>
       </c>
       <c r="AA68">
-        <v>13.2</v>
+        <v>5</v>
       </c>
       <c r="AB68">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="AC68">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="AD68" t="s">
         <v>149</v>
